--- a/SoftWare/STM32H723_GCC/STM32H723_GCC资源分配.xlsx
+++ b/SoftWare/STM32H723_GCC/STM32H723_GCC资源分配.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BLDC\SoftWare\STM32H723_GCC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E14408-EA88-4514-A99A-8AEDAC154DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,372 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+  <si>
+    <t>运行指示灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器供电使能脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC5V_OUT_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC3V3_OUT_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCHDOG_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理图标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机驱动引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_1CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_1CH2</t>
+  </si>
+  <si>
+    <t>PWM_1CH3</t>
+  </si>
+  <si>
+    <t>PWM_1CH1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_1CH2N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_1CH3N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1_BKN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_CUR_U1</t>
+  </si>
+  <si>
+    <t>ADC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_CUR_V1</t>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_CUR_W1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL_W1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL_V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL_U1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABZ传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR1_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_2CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_2CH1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_2CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_2CH2N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_2CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_2CH3N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8_BKN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL_U2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL_V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL_W3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_CUR_U2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_CUR_V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_CUR_W2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR2_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOR2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +694,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SoftWare/STM32H723_GCC/STM32H723_GCC资源分配.xlsx
+++ b/SoftWare/STM32H723_GCC/STM32H723_GCC资源分配.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BLDC\SoftWare\STM32H723_GCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\SoftWare\STM32H723_GCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E14408-EA88-4514-A99A-8AEDAC154DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D9DED-BACE-4105-85C8-EAB056AF9AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,13 +697,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -775,7 +775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>20</v>
       </c>
@@ -783,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>18</v>
       </c>
@@ -791,7 +791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>19</v>
       </c>
@@ -810,7 +810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>22</v>
       </c>
@@ -818,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>30</v>
       </c>
@@ -826,12 +826,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>35</v>
       </c>
@@ -842,7 +842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>35</v>
       </c>
@@ -853,7 +853,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>35</v>
       </c>
@@ -864,12 +864,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>42</v>
       </c>
@@ -880,7 +880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>46</v>
       </c>
@@ -888,7 +888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>43</v>
       </c>
@@ -896,12 +896,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>87</v>
       </c>
@@ -912,7 +912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>50</v>
       </c>
@@ -920,7 +920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>54</v>
       </c>
@@ -934,7 +934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
       <c r="H31" t="s">
         <v>56</v>
       </c>
@@ -942,7 +942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>57</v>
       </c>
@@ -950,7 +950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H33" t="s">
         <v>58</v>
       </c>
@@ -958,7 +958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H34" t="s">
         <v>59</v>
       </c>
@@ -966,7 +966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
         <v>60</v>
       </c>
@@ -974,7 +974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H36" t="s">
         <v>67</v>
       </c>
@@ -982,12 +982,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>72</v>
       </c>
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>72</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>72</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H44" t="s">
         <v>69</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
         <v>70</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
         <v>71</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>86</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>84</v>
       </c>

--- a/SoftWare/STM32H723_GCC/STM32H723_GCC资源分配.xlsx
+++ b/SoftWare/STM32H723_GCC/STM32H723_GCC资源分配.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangge\Desktop\BLDC\SoftWare\STM32H723_GCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D9DED-BACE-4105-85C8-EAB056AF9AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C8DDA-D980-42F1-913F-B78ADD99264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
